--- a/templates/data.xlsx
+++ b/templates/data.xlsx
@@ -11,11 +11,16 @@
     <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>BonNr.</t>
   </si>
@@ -33,6 +38,9 @@
   </si>
   <si>
     <t>Beschrijving</t>
+  </si>
+  <si>
+    <t>Factor</t>
   </si>
 </sst>
 </file>
@@ -130,20 +138,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G:G"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5101214574899"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="23.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="113.012145748988"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="113.975708502024"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -165,6 +173,9 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
